--- a/fixtures/output/01043110000366247_maximum_offsite_impacts.xlsx
+++ b/fixtures/output/01043110000366247_maximum_offsite_impacts.xlsx
@@ -570,7 +570,7 @@
         <v>3776727</v>
       </c>
       <c r="N2" t="n">
-        <v>34.1313143389</v>
+        <v>34.131314338</v>
       </c>
       <c r="O2" t="n">
         <v>-86.8439573003</v>
@@ -704,7 +704,7 @@
         <v>3776727</v>
       </c>
       <c r="N5" t="n">
-        <v>34.1313143389</v>
+        <v>34.131314338</v>
       </c>
       <c r="O5" t="n">
         <v>-86.8439573003</v>
@@ -750,7 +750,7 @@
         <v>3776727</v>
       </c>
       <c r="N6" t="n">
-        <v>34.1313143389</v>
+        <v>34.131314338</v>
       </c>
       <c r="O6" t="n">
         <v>-86.8439573003</v>
